--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D518CE-6BE3-4274-95B1-419C0B40BCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA5312-DF86-4ED5-A0A0-94E322B4D62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -548,10 +548,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA5312-DF86-4ED5-A0A0-94E322B4D62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D518CE-6BE3-4274-95B1-419C0B40BCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -548,10 +548,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C4">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA5312-DF86-4ED5-A0A0-94E322B4D62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C836CBB-9F83-4AB9-A000-23007E8ED9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
@@ -66,15 +66,6 @@
     <t>peer-reviewer</t>
   </si>
   <si>
-    <t>Ph.D., Economics</t>
-  </si>
-  <si>
-    <t>M.A. International Economics</t>
-  </si>
-  <si>
-    <t>B.S. Economics</t>
-  </si>
-  <si>
     <t>Université Grenoble Alpes, France</t>
   </si>
   <si>
@@ -106,6 +97,15 @@
   </si>
   <si>
     <t>Revista Brasileira de Desenvolvimento Regional</t>
+  </si>
+  <si>
+    <t>Ph.D. candidate in Economics</t>
+  </si>
+  <si>
+    <t>M.A. in International Economics</t>
+  </si>
+  <si>
+    <t>B.S. in Economics</t>
   </si>
 </sst>
 </file>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -464,10 +464,10 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -514,10 +514,10 @@
         <v>2021</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -534,10 +534,10 @@
         <v>2012</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -554,10 +554,10 @@
         <v>2009</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -568,14 +568,14 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -583,16 +583,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -600,16 +600,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -625,7 +625,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C836CBB-9F83-4AB9-A000-23007E8ED9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C3429-C834-4B00-BFE0-9CFA11060E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="384" yWindow="0" windowWidth="18540" windowHeight="12504" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>type</t>
   </si>
@@ -84,9 +84,6 @@
     <t>2010</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
     <t>Review of Keynesian Economics</t>
   </si>
   <si>
@@ -106,6 +103,15 @@
   </si>
   <si>
     <t>B.S. in Economics</t>
+  </si>
+  <si>
+    <t>Since 2012</t>
+  </si>
+  <si>
+    <t>2010 ---</t>
+  </si>
+  <si>
+    <t>2008 ---</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -514,7 +520,7 @@
         <v>2021</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -534,7 +540,7 @@
         <v>2012</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -554,7 +560,7 @@
         <v>2009</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -568,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
@@ -583,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -600,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -617,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -625,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -633,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -641,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C3429-C834-4B00-BFE0-9CFA11060E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7DAB7-07BF-404D-93B4-8C44F6E671D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="18540" windowHeight="12504" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
+    <workbookView xWindow="1092" yWindow="1128" windowWidth="21600" windowHeight="11436" xr2:uid="{658FACE9-883F-4F49-B936-65547CAA7E51}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>type</t>
   </si>
@@ -60,9 +60,6 @@
     <t>history</t>
   </si>
   <si>
-    <t>Research Assistant</t>
-  </si>
-  <si>
     <t>peer-reviewer</t>
   </si>
   <si>
@@ -75,15 +72,6 @@
     <t>Universidade de Blumenau, Brazil</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>Assistant Professor of Economics</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
     <t>Review of Keynesian Economics</t>
   </si>
   <si>
@@ -112,6 +100,12 @@
   </si>
   <si>
     <t>2008 ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Research Assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Assistant Professor of Economics</t>
   </si>
 </sst>
 </file>
@@ -470,7 +464,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -520,10 +514,10 @@
         <v>2021</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -540,10 +534,10 @@
         <v>2012</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -560,10 +554,10 @@
         <v>2009</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -574,14 +568,14 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -589,16 +583,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>2012</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -606,48 +600,48 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>2010</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -74,7 +74,7 @@
     <t>2010</t>
   </si>
   <si>
-    <t>Ph.D. candidate in Economics</t>
+    <t>Ph.D. in Economics</t>
   </si>
   <si>
     <t>M.A. in International Economics</t>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -62,7 +62,7 @@
     <t>2008 ---</t>
   </si>
   <si>
-    <t>2021</t>
+    <t>2022</t>
   </si>
   <si>
     <t>2012</t>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">2009</t>
   </si>
   <si>
-    <t xml:space="preserve">B.S. in Economics</t>
+    <t xml:space="preserve">B.Sc. in Economics</t>
   </si>
   <si>
     <t xml:space="preserve">Universidade de Blumenau, Brazil</t>
@@ -86,10 +86,7 @@
     <t xml:space="preserve">Since 1/2022</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PhD Intern</t>
+    <t xml:space="preserve">Ph.D. Intern</t>
   </si>
   <si>
     <t xml:space="preserve">Bank of England, United Kingdom</t>
@@ -553,14 +550,12 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5"/>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -571,11 +566,11 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -595,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -609,13 +604,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -626,12 +621,12 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -640,12 +635,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -654,12 +649,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -668,12 +663,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Ph.D. in Economics</t>
   </si>
   <si>
-    <t xml:space="preserve">Université Grenoble Alpes, France</t>
+    <t xml:space="preserve">Univ. Grenoble Alpes, France | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/bttomio/UGA_thesisdown)[Reproducibility repository]{.smaller-font}**</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -83,7 +83,16 @@
     <t xml:space="preserve">history</t>
   </si>
   <si>
-    <t xml:space="preserve">Since 1/2022</t>
+    <t xml:space="preserve">Since 6/2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Professor of Economics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan-Apr/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Ph.D. Intern</t>
@@ -92,12 +101,6 @@
     <t xml:space="preserve">Bank of England, United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Since 6/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Professor of Economics</t>
-  </si>
-  <si>
     <t xml:space="preserve">Research Assistant</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve">Revista de Economia Contemporânea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revista Brasileira de Desenvolvimento Regional</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -566,14 +566,16 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -590,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -604,13 +606,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -621,12 +623,12 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -635,12 +637,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -649,31 +651,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -1,133 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bttom\OneDrive - FURB\Documentos\GitHub\bttomio.github.io\cv\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF8505-6E75-4564-8CBA-210B0322742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year_begin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year_end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what</t>
-  </si>
-  <si>
-    <t xml:space="preserve">where</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additional_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">short_cv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018 ---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ph.D. in Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ. Grenoble Alpes, France | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/bttomio/UGA_thesisdown)[Reproducibility repository]{.smaller-font}**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010 ---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M.A. in Int. Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berlin School of Economics and Law, Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005 ---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.Sc. in Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidade de Blumenau, Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since 6/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Professor of Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan-Apr/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ph.D. Intern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank of England, United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008 ---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peer-reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review of Keynesian Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emerging Markets Finance and Trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revista de Economia Contemporânea</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>year_begin</t>
+  </si>
+  <si>
+    <t>year_end</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>additional_info</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>short_cv</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>2018 ---</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Ph.D. in Economics</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>2010 ---</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>M.A. in Int. Economics</t>
+  </si>
+  <si>
+    <t>Berlin School of Economics and Law, Germany</t>
+  </si>
+  <si>
+    <t>2005 ---</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>B.Sc. in Economics</t>
+  </si>
+  <si>
+    <t>Universidade de Blumenau, Brazil</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>Assistant Professor of Economics</t>
+  </si>
+  <si>
+    <t>Jan-Apr/2022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ph.D. Intern</t>
+  </si>
+  <si>
+    <t>Bank of England, United Kingdom</t>
+  </si>
+  <si>
+    <t>Research Assistant</t>
+  </si>
+  <si>
+    <t>2008 ---</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>peer-reviewer</t>
+  </si>
+  <si>
+    <t>Review of Keynesian Economics</t>
+  </si>
+  <si>
+    <t>Emerging Markets Finance and Trade</t>
+  </si>
+  <si>
+    <t>Revista de Economia Contemporânea</t>
+  </si>
+  <si>
+    <t>Since Jun/2012</t>
+  </si>
+  <si>
+    <t>Univ. Grenoble Alpes, France | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/bttomio/UGA_thesisdown)[Thesis repository]{.smaller-font}**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,6 +170,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -444,14 +460,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -491,180 +509,143 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" t="s">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bttom\OneDrive - FURB\Documentos\GitHub\bttomio.github.io\cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF8505-6E75-4564-8CBA-210B0322742C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013D22BF-D1DD-4A23-9C5C-DFAE48645DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>type</t>
   </si>
@@ -128,6 +128,36 @@
   </si>
   <si>
     <t>Univ. Grenoble Alpes, France | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/bttomio/UGA_thesisdown)[Thesis repository]{.smaller-font}**</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>Nov/2021</t>
+  </si>
+  <si>
+    <t>LatinR | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/bttomio/WDI---2021-Talk)[Presentation repository]{.smaller-font}**</t>
+  </si>
+  <si>
+    <t>Forum activity</t>
+  </si>
+  <si>
+    <t>Stack Overflow | **[&lt;i class="fab falink0 fa-stack-overflow"&gt;&lt;/i&gt;](https://stackoverflow.com/users/13249862/bttomio?tab=profile)[Personal profile]{.smaller-font}**</t>
+  </si>
+  <si>
+    <t>World Bank data in R</t>
+  </si>
+  <si>
+    <t>Since Apr/2020</t>
+  </si>
+  <si>
+    <t>Since Oct/2018</t>
+  </si>
+  <si>
+    <t>Code sharing</t>
+  </si>
+  <si>
+    <t>GitHub | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/bttomio)[Personal profile]{.smaller-font}**</t>
   </si>
 </sst>
 </file>
@@ -163,8 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,6 +675,48 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bttom\OneDrive - FURB\Documentos\GitHub\bttomio.github.io\cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013D22BF-D1DD-4A23-9C5C-DFAE48645DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D699C-AC14-481C-A26E-2F691A539292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>B.Sc. in Economics</t>
   </si>
   <si>
-    <t>Universidade de Blumenau, Brazil</t>
-  </si>
-  <si>
     <t>history</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>GitHub | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/bttomio)[Personal profile]{.smaller-font}**</t>
+  </si>
+  <si>
+    <t>University of Blumenau, Brazil</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -580,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -588,38 +588,38 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -636,85 +636,85 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/cv/data/cv_entries.xlsx
+++ b/cv/data/cv_entries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bttom\OneDrive - FURB\Documentos\GitHub\bttomio.github.io\cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D699C-AC14-481C-A26E-2F691A539292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D102F-67FE-493D-AC38-C3CA6FDC52D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="456" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>Since Jun/2012</t>
   </si>
   <si>
-    <t>Univ. Grenoble Alpes, France | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/bttomio/UGA_thesisdown)[Thesis repository]{.smaller-font}**</t>
-  </si>
-  <si>
     <t>sharing</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>University of Blumenau, Brazil</t>
+  </si>
+  <si>
+    <t>Univ. Grenoble Alpes, France | **[&lt;i class="fab falink0 fa-github"&gt;&lt;/i&gt;](https://github.com/bttomio/UGA_thesisdown)[&lt;i class="fas fa-folder-open"&gt;&lt;/i&gt;](https://theses.fr/2022GRALE003)**</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -580,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -597,7 +597,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -677,44 +677,44 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
